--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/66.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/66.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2340183933220319</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.090385747826787</v>
+        <v>-1.980757385546738</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1605332948455497</v>
+        <v>-0.2298538293613503</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2473994174693616</v>
+        <v>-0.2747299629944421</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1832939903944386</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.203232661518036</v>
+        <v>-2.057246927697034</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1978720287553891</v>
+        <v>-0.2760553206250156</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2436301076870586</v>
+        <v>-0.2592239496294763</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1306330686295091</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.44246306840028</v>
+        <v>-2.26885951641545</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2384677390790631</v>
+        <v>-0.3137874533713575</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3206484510640964</v>
+        <v>-0.3285426543832465</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.08871791019277191</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.5804216361946</v>
+        <v>-2.393637088464568</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1984270565712298</v>
+        <v>-0.2612324184180076</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3578914274276863</v>
+        <v>-0.3706967120360118</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.05254080009736857</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.673753527912618</v>
+        <v>-2.461018685148986</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1724974988406396</v>
+        <v>-0.2362433583709629</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3577255290036109</v>
+        <v>-0.3663004037980118</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.01584880164272741</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.590390789656047</v>
+        <v>-2.405378061491968</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02373898961695726</v>
+        <v>-0.02634342691285602</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3734090292855104</v>
+        <v>-0.3844571324241248</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.02583964031034825</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.468227947548148</v>
+        <v>-2.329125778484926</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1196581648457406</v>
+        <v>0.04897140801402442</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3519995936903001</v>
+        <v>-0.3455228460239125</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.07540855233201797</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.156245592422719</v>
+        <v>-2.037991122011422</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2029690598447881</v>
+        <v>0.1135571283162298</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3445408737343481</v>
+        <v>-0.3424067612864066</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1389139542414698</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.708029525176813</v>
+        <v>-1.572540526202646</v>
       </c>
       <c r="F10" t="n">
-        <v>0.274288304418292</v>
+        <v>0.1502414173399185</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2618258712364835</v>
+        <v>-0.2434062667986921</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2206212944180294</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.269632570905874</v>
+        <v>-1.144964174657894</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2965064948308702</v>
+        <v>0.1558240212941934</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2090415061086763</v>
+        <v>-0.1560528175541585</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3231159200817608</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6349460650784614</v>
+        <v>-0.5059740685353473</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2141696431525894</v>
+        <v>0.03498348721348446</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1116329045872742</v>
+        <v>-0.04063447828973977</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4459206587632925</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.07742306374915238</v>
+        <v>0.03378133355961403</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06897863597339096</v>
+        <v>-0.09279428464455694</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01365334130625137</v>
+        <v>0.09426167778662821</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5857621399312166</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6410403164743435</v>
+        <v>0.7504204410389564</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1914367556950203</v>
+        <v>-0.364765233454637</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1666739002128646</v>
+        <v>0.2633499870014923</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7323240973546383</v>
       </c>
       <c r="E15" t="n">
-        <v>1.301552693517299</v>
+        <v>1.424368150749318</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4775328574579086</v>
+        <v>-0.6544299810971781</v>
       </c>
       <c r="G15" t="n">
-        <v>0.347546486823178</v>
+        <v>0.4611271350885548</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8772596341197511</v>
       </c>
       <c r="E16" t="n">
-        <v>2.022113590948132</v>
+        <v>2.180725902619171</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7698105052796385</v>
+        <v>-0.9113926118145187</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4777346651957277</v>
+        <v>0.5937562160094503</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.021541585774163</v>
       </c>
       <c r="E17" t="n">
-        <v>2.611173760710053</v>
+        <v>2.793533943850954</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.092233482549641</v>
+        <v>-1.245180241054368</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6636592247715452</v>
+        <v>0.7795783089115741</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.17020294511557</v>
       </c>
       <c r="E18" t="n">
-        <v>3.203628748958753</v>
+        <v>3.420712936068275</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.395676948200598</v>
+        <v>-1.511137981912389</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8388967542493833</v>
+        <v>0.9516979238898761</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.325465922042192</v>
       </c>
       <c r="E19" t="n">
-        <v>3.675835436103867</v>
+        <v>3.878320561894748</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.777029851337321</v>
+        <v>-1.894909220532418</v>
       </c>
       <c r="G19" t="n">
-        <v>1.018123164953153</v>
+        <v>1.147464773426377</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.484509036087339</v>
       </c>
       <c r="E20" t="n">
-        <v>4.052932312758243</v>
+        <v>4.262752344607695</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.101086196179655</v>
+        <v>-2.179810487689557</v>
       </c>
       <c r="G20" t="n">
-        <v>1.187197445992452</v>
+        <v>1.31310032169017</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.643110654287173</v>
       </c>
       <c r="E21" t="n">
-        <v>4.417903966358867</v>
+        <v>4.651585314924056</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.48432558396956</v>
+        <v>-2.525936812220019</v>
       </c>
       <c r="G21" t="n">
-        <v>1.371802747144464</v>
+        <v>1.49722012598349</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.795024226442608</v>
       </c>
       <c r="E22" t="n">
-        <v>4.69365154399937</v>
+        <v>4.907001796725841</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.757243129669953</v>
+        <v>-2.735784290499926</v>
       </c>
       <c r="G22" t="n">
-        <v>1.504778263009752</v>
+        <v>1.620230757832069</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.93432943619046</v>
       </c>
       <c r="E23" t="n">
-        <v>4.916665379928237</v>
+        <v>5.128944611946338</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.142672437649721</v>
+        <v>-3.088323625986056</v>
       </c>
       <c r="G23" t="n">
-        <v>1.686438867134424</v>
+        <v>1.814023904058613</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.056064636446539</v>
       </c>
       <c r="E24" t="n">
-        <v>5.049853758109711</v>
+        <v>5.246854477175273</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.382838767810436</v>
+        <v>-3.286593285019592</v>
       </c>
       <c r="G24" t="n">
-        <v>1.838141387458585</v>
+        <v>1.962216940808766</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.154044806106162</v>
       </c>
       <c r="E25" t="n">
-        <v>5.218124773617732</v>
+        <v>5.423280132131416</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.650480804617296</v>
+        <v>-3.554634514909385</v>
       </c>
       <c r="G25" t="n">
-        <v>1.90949417766931</v>
+        <v>2.028860533474319</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.224063320611444</v>
       </c>
       <c r="E26" t="n">
-        <v>5.258955303401954</v>
+        <v>5.489127168393137</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.811372694817682</v>
+        <v>-3.70549412485828</v>
       </c>
       <c r="G26" t="n">
-        <v>1.942999560125788</v>
+        <v>2.072003272544093</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.265233039972855</v>
       </c>
       <c r="E27" t="n">
-        <v>5.267309996832049</v>
+        <v>5.515713610692584</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.990538418414116</v>
+        <v>-3.880088492982487</v>
       </c>
       <c r="G27" t="n">
-        <v>2.039845814783228</v>
+        <v>2.140752921306457</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.278513759808161</v>
       </c>
       <c r="E28" t="n">
-        <v>5.205492096560927</v>
+        <v>5.449958062532376</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.015323459994788</v>
+        <v>-3.910417103594122</v>
       </c>
       <c r="G28" t="n">
-        <v>2.068795699705074</v>
+        <v>2.169076417693283</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.267723188201558</v>
       </c>
       <c r="E29" t="n">
-        <v>5.121304745549392</v>
+        <v>5.380785738741025</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.03065381620485</v>
+        <v>-3.893317977421491</v>
       </c>
       <c r="G29" t="n">
-        <v>2.131847469505259</v>
+        <v>2.229839155193632</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.237173989992777</v>
       </c>
       <c r="E30" t="n">
-        <v>5.020833732310038</v>
+        <v>5.266928186488405</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.979015492028653</v>
+        <v>-3.853506015167438</v>
       </c>
       <c r="G30" t="n">
-        <v>2.105234800616711</v>
+        <v>2.204808010619892</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.188960959721165</v>
       </c>
       <c r="E31" t="n">
-        <v>4.954764684921981</v>
+        <v>5.216169367928078</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.934499821515519</v>
+        <v>-3.84167080939548</v>
       </c>
       <c r="G31" t="n">
-        <v>2.034560852119206</v>
+        <v>2.130867326977724</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.126199359876662</v>
       </c>
       <c r="E32" t="n">
-        <v>4.784467512925803</v>
+        <v>5.033129733153279</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.890677020891171</v>
+        <v>-3.783973533216467</v>
       </c>
       <c r="G32" t="n">
-        <v>1.963570354790469</v>
+        <v>2.044071955152415</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.05296362248471</v>
       </c>
       <c r="E33" t="n">
-        <v>4.553118501028496</v>
+        <v>4.792852702389735</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.804211616151983</v>
+        <v>-3.718254580296864</v>
       </c>
       <c r="G33" t="n">
-        <v>1.825060418704369</v>
+        <v>1.918531982257363</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.971796758925489</v>
       </c>
       <c r="E34" t="n">
-        <v>4.376373247637737</v>
+        <v>4.607281896806431</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.598845835004821</v>
+        <v>-3.482802327046735</v>
       </c>
       <c r="G34" t="n">
-        <v>1.706222254205424</v>
+        <v>1.779027875468163</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.886733243440483</v>
       </c>
       <c r="E35" t="n">
-        <v>4.132024386436224</v>
+        <v>4.347737471864416</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.437974987067784</v>
+        <v>-3.332039694485443</v>
       </c>
       <c r="G35" t="n">
-        <v>1.631203230806766</v>
+        <v>1.712749625287982</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.800701572400797</v>
       </c>
       <c r="E36" t="n">
-        <v>3.892218214435129</v>
+        <v>4.108010589551299</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.271984464970123</v>
+        <v>-3.171810788060683</v>
       </c>
       <c r="G36" t="n">
-        <v>1.561995531616164</v>
+        <v>1.6438456665944</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.714601688035906</v>
       </c>
       <c r="E37" t="n">
-        <v>3.639018184372647</v>
+        <v>3.855976727822759</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.169185079547283</v>
+        <v>-3.066007543304859</v>
       </c>
       <c r="G37" t="n">
-        <v>1.470258582467842</v>
+        <v>1.546763982555735</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.63031158859491</v>
       </c>
       <c r="E38" t="n">
-        <v>3.462920666740594</v>
+        <v>3.682193249238289</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.035633188642468</v>
+        <v>-2.9394447334349</v>
       </c>
       <c r="G38" t="n">
-        <v>1.397457230649841</v>
+        <v>1.479852634713089</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.547578567285677</v>
       </c>
       <c r="E39" t="n">
-        <v>3.095014074843459</v>
+        <v>3.328677125788347</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.816368230153233</v>
+        <v>-2.724401340909777</v>
       </c>
       <c r="G39" t="n">
-        <v>1.251861236141282</v>
+        <v>1.33333017069655</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.464515131003104</v>
       </c>
       <c r="E40" t="n">
-        <v>2.870305879274586</v>
+        <v>3.098533317148295</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.699010953057432</v>
+        <v>-2.614052662310488</v>
       </c>
       <c r="G40" t="n">
-        <v>1.164233322592211</v>
+        <v>1.239173666223568</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.382069867807622</v>
       </c>
       <c r="E41" t="n">
-        <v>2.580210527634261</v>
+        <v>2.763178191769204</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.526277147957645</v>
+        <v>-2.455783735980458</v>
       </c>
       <c r="G41" t="n">
-        <v>1.020722036956777</v>
+        <v>1.094663330519621</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.300668713656079</v>
       </c>
       <c r="E42" t="n">
-        <v>2.284083060500897</v>
+        <v>2.458981474082463</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.471212899340153</v>
+        <v>-2.408649066081368</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9597635149191923</v>
+        <v>1.045752571609841</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.220005264918616</v>
       </c>
       <c r="E43" t="n">
-        <v>2.017767906126302</v>
+        <v>2.184003616336015</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.321040060073277</v>
+        <v>-2.253507812981701</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8775340092800191</v>
+        <v>0.9593255918732873</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.141160256011834</v>
       </c>
       <c r="E44" t="n">
-        <v>1.690687574568651</v>
+        <v>1.841147686474276</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.260701827363945</v>
+        <v>-2.210021078650242</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8162034356296182</v>
+        <v>0.9013447025795867</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.064261859087514</v>
       </c>
       <c r="E45" t="n">
-        <v>1.462906598630321</v>
+        <v>1.60080173467426</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.202409268604426</v>
+        <v>-2.166313553033799</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7250245639005208</v>
+        <v>0.8108465023257401</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.9888204453583014</v>
       </c>
       <c r="E46" t="n">
-        <v>1.225328466861388</v>
+        <v>1.348300063786654</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.130328233105664</v>
+        <v>-2.103567963413343</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6011447950875762</v>
+        <v>0.6646174101547164</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.9154730524404593</v>
       </c>
       <c r="E47" t="n">
-        <v>1.013394449946326</v>
+        <v>1.099040121295965</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.054069850891854</v>
+        <v>-2.03252989227182</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4996320373323365</v>
+        <v>0.5734836725556983</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.8438774081052172</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8143389081207995</v>
+        <v>0.9012666327329628</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.988281976935778</v>
+        <v>-1.955501790163954</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4153428295677851</v>
+        <v>0.4820955980344763</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.7730880641330018</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6565280322190069</v>
+        <v>0.73046383649576</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.892791575942749</v>
+        <v>-1.864333287086361</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3223036997746061</v>
+        <v>0.3888515348939099</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.7035502515682523</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4805640872151619</v>
+        <v>0.5335649741832147</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.872515982885613</v>
+        <v>-1.846487008084713</v>
       </c>
       <c r="G50" t="n">
-        <v>0.286283614367896</v>
+        <v>0.3520312335593064</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.634630228580756</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2695114056780012</v>
+        <v>0.3127810082485387</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.816298984189068</v>
+        <v>-1.770633003279587</v>
       </c>
       <c r="G51" t="n">
-        <v>0.181856655619154</v>
+        <v>0.2411848596877911</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.566470406605642</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1507415522948519</v>
+        <v>0.1909530125921746</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.758724302066081</v>
+        <v>-1.713823161685243</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1488727553412958</v>
+        <v>0.205588669151421</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.499919840853205</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.01780453743838321</v>
+        <v>0.01055433434769449</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.730257474320219</v>
+        <v>-1.667106287449725</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1061063373290755</v>
+        <v>0.1515307896505639</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.4353447153748113</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2296519456173467</v>
+        <v>-0.2036119922442651</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.648571408004029</v>
+        <v>-1.597941892627172</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0227051740698693</v>
+        <v>0.06114176519785516</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3728091035374314</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3413107338302904</v>
+        <v>-0.3079505124948786</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.637461092956386</v>
+        <v>-1.559947493989829</v>
       </c>
       <c r="G55" t="n">
-        <v>0.005001006585903425</v>
+        <v>0.04640791140965233</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.312334067327783</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5041894406351825</v>
+        <v>-0.4790515599430113</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.654915192962885</v>
+        <v>-1.571179183252144</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1277421295015439</v>
+        <v>-0.09241308422158939</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2534996405131651</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6514785749423943</v>
+        <v>-0.6253507929918609</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.631303943724614</v>
+        <v>-1.528673201368896</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1392903675950916</v>
+        <v>-0.1187671467431962</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1964871005664257</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.8078707753500708</v>
+        <v>-0.7851225638693985</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.619949660406273</v>
+        <v>-1.520106865463969</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1893959611106213</v>
+        <v>-0.1701456447110991</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1428232376917086</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.9908372196436602</v>
+        <v>-0.9772140314078156</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.59877321450958</v>
+        <v>-1.492672023503165</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2422394885440731</v>
+        <v>-0.2216241696699887</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.09414327495283786</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.198381027527489</v>
+        <v>-1.181977820847027</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.625995194154199</v>
+        <v>-1.510673222356707</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2698914622657998</v>
+        <v>-0.259074519063673</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.0525190917367868</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.346928428190832</v>
+        <v>-1.324340625848145</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.563287419615701</v>
+        <v>-1.443483140764787</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3431630629255742</v>
+        <v>-0.3250173128716428</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.01960241436363134</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.49645963090577</v>
+        <v>-1.482929760533468</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.521427343729129</v>
+        <v>-1.38050883089055</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3842101145500418</v>
+        <v>-0.3705515509149458</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.004416690014595195</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.622635751066671</v>
+        <v>-1.60454245419094</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.576911217772223</v>
+        <v>-1.449005362572064</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4787106142847091</v>
+        <v>-0.4748510362422474</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.019949025777562</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.797062695965111</v>
+        <v>-1.783476712890548</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.525754121009979</v>
+        <v>-1.410935333770804</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5226066053902668</v>
+        <v>-0.5171850204946534</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.02730614078549069</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.966136367083733</v>
+        <v>-1.952722381640013</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.515652614761678</v>
+        <v>-1.389537486668452</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5482031464313526</v>
+        <v>-0.547291924940291</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.0271804071822558</v>
       </c>
       <c r="E66" t="n">
-        <v>-2.126052079240983</v>
+        <v>-2.089348272755638</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.523315658144341</v>
+        <v>-1.381545086120345</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.629442140891487</v>
+        <v>-0.6484015251282003</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.02108265339830955</v>
       </c>
       <c r="E67" t="n">
-        <v>-2.340655109037494</v>
+        <v>-2.291597969165295</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.515826442154551</v>
+        <v>-1.383610277531814</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6687795848590297</v>
+        <v>-0.689818798603454</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.01058520386472584</v>
       </c>
       <c r="E68" t="n">
-        <v>-2.512729589885717</v>
+        <v>-2.478084265684397</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.51284636972796</v>
+        <v>-1.38929778784249</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7401226163389267</v>
+        <v>-0.7633081409448275</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.002763767415163442</v>
       </c>
       <c r="E69" t="n">
-        <v>-2.606609800292131</v>
+        <v>-2.558895705750131</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.530908560649177</v>
+        <v>-1.387937054812665</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7380336380210647</v>
+        <v>-0.7632416595910619</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.01773646573568101</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.751218333225035</v>
+        <v>-2.694557922196494</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.45374383630972</v>
+        <v>-1.296347706468116</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7574144774454109</v>
+        <v>-0.7940121577330014</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.03381686637074505</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.9056959926284</v>
+        <v>-2.835395925505742</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.507248517756766</v>
+        <v>-1.335796765919504</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.8255798221994507</v>
+        <v>-0.8480181939763349</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.05035567928352157</v>
       </c>
       <c r="E72" t="n">
-        <v>-3.031329893307672</v>
+        <v>-2.957353834266253</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.471688922461001</v>
+        <v>-1.306505935339355</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.8866023859080938</v>
+        <v>-0.9180627043354355</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.06685967575347698</v>
       </c>
       <c r="E73" t="n">
-        <v>-3.064832836081443</v>
+        <v>-2.967389469081466</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.47097836487259</v>
+        <v>-1.296842962057635</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.9044431756236513</v>
+        <v>-0.9385584787568771</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.08309386328874341</v>
       </c>
       <c r="E74" t="n">
-        <v>-3.106329399244673</v>
+        <v>-2.977976472188459</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.535590311763895</v>
+        <v>-1.368975840813921</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.9094457450143388</v>
+        <v>-0.9476871615257654</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.09904908876231731</v>
       </c>
       <c r="E75" t="n">
-        <v>-3.086999488196835</v>
+        <v>-2.957690510479818</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.550809052490113</v>
+        <v>-1.391744179676926</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.9386237402692892</v>
+        <v>-0.9765919123175326</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.1148659443936656</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.978750156566913</v>
+        <v>-2.847233875920745</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.543740071846603</v>
+        <v>-1.374130890373796</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.8776023964019996</v>
+        <v>-0.9084595032800372</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1312670123273393</v>
       </c>
       <c r="E77" t="n">
-        <v>-2.85973542003205</v>
+        <v>-2.729595425392963</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.469454173101396</v>
+        <v>-1.299250928889437</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.8873464891337265</v>
+        <v>-0.9003737848683883</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.1489548798624002</v>
       </c>
       <c r="E78" t="n">
-        <v>-2.740924092042882</v>
+        <v>-2.603257676252724</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.467499377332419</v>
+        <v>-1.31481183511531</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.8492294964403566</v>
+        <v>-0.8692641708301768</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.1679292795689001</v>
       </c>
       <c r="E79" t="n">
-        <v>-2.548345907804419</v>
+        <v>-2.401420896141226</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.435326671554635</v>
+        <v>-1.269688073687458</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.8142261488017856</v>
+        <v>-0.8127495308433785</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1879865100918771</v>
       </c>
       <c r="E80" t="n">
-        <v>-2.384197956071215</v>
+        <v>-2.261534369087706</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.36991572857679</v>
+        <v>-1.214679937772228</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.7539031641093724</v>
+        <v>-0.759210693838434</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2088799538151762</v>
       </c>
       <c r="E81" t="n">
-        <v>-2.129661589805978</v>
+        <v>-2.017442284491103</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.305455651933995</v>
+        <v>-1.138696019862955</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.722403810758719</v>
+        <v>-0.7243592164483732</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2303347485163752</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.889451650316876</v>
+        <v>-1.778215537132919</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.29832750898484</v>
+        <v>-1.141866387540691</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.6480837564556146</v>
+        <v>-0.6361585873838366</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.2514812347136552</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.619462333785551</v>
+        <v>-1.512573125264777</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.206924796367376</v>
+        <v>-1.053108900898283</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.5943954888848668</v>
+        <v>-0.5676827930053321</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2702012196964406</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.305378192008048</v>
+        <v>-1.194715404260233</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.112342567262025</v>
+        <v>-0.9582345197887695</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.5339682077567297</v>
+        <v>-0.5093176536852801</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2838258523630664</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.042834177177786</v>
+        <v>-0.9346671848392245</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.026388885970628</v>
+        <v>-0.8933981220884207</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.4884540970957594</v>
+        <v>-0.47137326854343</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.289738844121896</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.7279138341524609</v>
+        <v>-0.6324935740372575</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9452358903259149</v>
+        <v>-0.8075158015162034</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.42433801571465</v>
+        <v>-0.4076518058401766</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.285342605662452</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.4449996885601672</v>
+        <v>-0.3726899328076245</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8276999064718269</v>
+        <v>-0.7031327570561873</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.3450111225761208</v>
+        <v>-0.3189400632485251</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2693635823273945</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.1710379586611815</v>
+        <v>-0.09030092891801088</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7373108820191182</v>
+        <v>-0.6304393611979701</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2149778640554651</v>
+        <v>-0.191851501755209</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2410596258097063</v>
       </c>
       <c r="E89" t="n">
-        <v>0.06401327174398502</v>
+        <v>0.1141481414519986</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5713087714285993</v>
+        <v>-0.4875172589362743</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.2016334095688944</v>
+        <v>-0.1876027943209821</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2005550416682791</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2822666767908333</v>
+        <v>0.3104474517393006</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4825152994662635</v>
+        <v>-0.4355318898950071</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.115700465580507</v>
+        <v>-0.1061954617540653</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.149680357117288</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5269491646025285</v>
+        <v>0.5688738920808365</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3569710571264735</v>
+        <v>-0.321637132481105</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.09771390482320677</v>
+        <v>-0.09210873380389212</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.09149735618190975</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6686861909893027</v>
+        <v>0.7142954492758457</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.156371196147421</v>
+        <v>-0.156855473164759</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.09790541991570566</v>
+        <v>-0.0856106389138183</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.03060809284178662</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8240951992660613</v>
+        <v>0.8697703289856932</v>
       </c>
       <c r="F93" t="n">
-        <v>0.02199156687807408</v>
+        <v>0.008608077468191439</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.07148731572304028</v>
+        <v>-0.04317235822568843</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.02813064183965724</v>
       </c>
       <c r="E94" t="n">
-        <v>1.000994762588038</v>
+        <v>1.061243946878564</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1723443327445913</v>
+        <v>0.1258262926496937</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.06127541383224754</v>
+        <v>-0.02400377119685047</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.08115460037226505</v>
       </c>
       <c r="E95" t="n">
-        <v>1.021600932651971</v>
+        <v>1.067812792567141</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2886269296079621</v>
+        <v>0.2280270409283053</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.05618806546749199</v>
+        <v>-0.02082791423302333</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1263336527200202</v>
       </c>
       <c r="E96" t="n">
-        <v>1.046906541530248</v>
+        <v>1.099384116557651</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4150092029576039</v>
+        <v>0.3341428700309627</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07039738747369149</v>
+        <v>-0.01892069227683216</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1611793571111154</v>
       </c>
       <c r="E97" t="n">
-        <v>1.060170486487488</v>
+        <v>1.10947098470971</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4643158003865936</v>
+        <v>0.3904354988914246</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.09484239827707691</v>
+        <v>-0.02419162676528887</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1868433774038932</v>
       </c>
       <c r="E98" t="n">
-        <v>1.033018647720695</v>
+        <v>1.084533767920189</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5083197474519358</v>
+        <v>0.4367699528626211</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.115313165950772</v>
+        <v>-0.05421375223685853</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2058176430523701</v>
       </c>
       <c r="E99" t="n">
-        <v>0.950141406322815</v>
+        <v>1.00838395158684</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4909235899097277</v>
+        <v>0.427638830411026</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1450242318772001</v>
+        <v>-0.0669909804940536</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2256742236169742</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9485062089884534</v>
+        <v>1.014489867481765</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5059538651468301</v>
+        <v>0.4463566860597471</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1761161582157859</v>
+        <v>-0.111146797807906</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2483992023303648</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9223863560067178</v>
+        <v>0.9669709475563242</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5028780351739897</v>
+        <v>0.4499326509875209</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2128346027973725</v>
+        <v>-0.1563071544763625</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2812233780634072</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8847042367558694</v>
+        <v>0.9274145420658289</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4888498596087843</v>
+        <v>0.4412412813438611</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2117611424062959</v>
+        <v>-0.156773133873398</v>
       </c>
     </row>
   </sheetData>
